--- a/data/trans_orig/P5708-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>323635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>296651</v>
+        <v>299677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>352091</v>
+        <v>350464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4663244743333844</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4274442246990474</v>
+        <v>0.4318035004516269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5073272633278767</v>
+        <v>0.5049820643745258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>305</v>
@@ -765,19 +765,19 @@
         <v>298347</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269918</v>
+        <v>271965</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>322808</v>
+        <v>323475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4334223640387295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3921226551549043</v>
+        <v>0.3950959996514514</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4689581946341635</v>
+        <v>0.4699268511924449</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>621</v>
@@ -786,19 +786,19 @@
         <v>621982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>584705</v>
+        <v>582494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>659078</v>
+        <v>659595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4499407900627577</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4229748731761159</v>
+        <v>0.4213755879152719</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.476776529501804</v>
+        <v>0.4771501678192938</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>222935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>200726</v>
+        <v>200496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249384</v>
+        <v>249643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3212270412857742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2892258354586486</v>
+        <v>0.2888943999883672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3593366002429759</v>
+        <v>0.3597093289016753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>217</v>
@@ -836,19 +836,19 @@
         <v>214158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>190473</v>
+        <v>190892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>238784</v>
+        <v>240968</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3111168076211946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2767089270444166</v>
+        <v>0.2773178290095586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3468929391674681</v>
+        <v>0.3500656546211467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>436</v>
@@ -857,19 +857,19 @@
         <v>437093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>402133</v>
+        <v>405105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>471995</v>
+        <v>470549</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3161926263263896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2909028913749766</v>
+        <v>0.2930522565315861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3414404996260081</v>
+        <v>0.3403943150191949</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>127228</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108550</v>
+        <v>106531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148705</v>
+        <v>147493</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1833228798729228</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1564090407285875</v>
+        <v>0.1534995181200881</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2142688782358137</v>
+        <v>0.212522871315206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -907,19 +907,19 @@
         <v>136392</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116386</v>
+        <v>117393</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>157548</v>
+        <v>160576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1981437295319618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1690797142665358</v>
+        <v>0.1705420336886904</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2288771182339314</v>
+        <v>0.2332757421685326</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>264</v>
@@ -928,19 +928,19 @@
         <v>263621</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>237472</v>
+        <v>237098</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>295239</v>
+        <v>292655</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1907029572983993</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1717871102602533</v>
+        <v>0.1715161568829352</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2135754681230564</v>
+        <v>0.2117066334153653</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>19250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11946</v>
+        <v>11572</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31187</v>
+        <v>30738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0277370674603064</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01721336395661215</v>
+        <v>0.01667403873076608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04493709482513998</v>
+        <v>0.04429001417070388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -978,19 +978,19 @@
         <v>36535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25958</v>
+        <v>26433</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50352</v>
+        <v>49793</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05307657575179647</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03771093740560214</v>
+        <v>0.03840079780080164</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07314807786232565</v>
+        <v>0.07233730994781871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -999,19 +999,19 @@
         <v>55785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41994</v>
+        <v>42456</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72896</v>
+        <v>72354</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04035493603173794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03037844333714366</v>
+        <v>0.03071288603947468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05273317116366645</v>
+        <v>0.05234102828706375</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1049,19 +1049,19 @@
         <v>2919</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8053</v>
+        <v>8100</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004240523056317636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001148909623133612</v>
+        <v>0.001155469685078276</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0116996065489028</v>
+        <v>0.01176698032287275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1070,19 +1070,19 @@
         <v>3883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9204</v>
+        <v>9889</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002808690280715492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0007070434860323732</v>
+        <v>0.0007176542072061418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006658092415529447</v>
+        <v>0.00715359730336917</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>539193</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>510614</v>
+        <v>503746</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>570940</v>
+        <v>570026</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5606086739643582</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5308943204338001</v>
+        <v>0.5237538375507941</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5936161479702025</v>
+        <v>0.5926655810084538</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>511</v>
@@ -1195,19 +1195,19 @@
         <v>539657</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>508274</v>
+        <v>509351</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>571488</v>
+        <v>571903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5572705867817108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5248630647114514</v>
+        <v>0.5259752082129707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5901401332469116</v>
+        <v>0.5905692587837303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1004</v>
@@ -1216,19 +1216,19 @@
         <v>1078850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1036155</v>
+        <v>1033659</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1123136</v>
+        <v>1125315</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5589339293409168</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5368140165676476</v>
+        <v>0.5355208457612749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5818773316697829</v>
+        <v>0.5830064998437551</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>257350</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>231677</v>
+        <v>229162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285508</v>
+        <v>287704</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2675710957198764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.240878970605708</v>
+        <v>0.238263900683229</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2968474466092521</v>
+        <v>0.2991307272639263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -1266,19 +1266,19 @@
         <v>259565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234583</v>
+        <v>230749</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288148</v>
+        <v>286399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2680372049402444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2422399079308422</v>
+        <v>0.2382808174220331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2975529973756478</v>
+        <v>0.2957461917600226</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>491</v>
@@ -1287,19 +1287,19 @@
         <v>516915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>478633</v>
+        <v>474567</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556886</v>
+        <v>554160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2678049463858523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2479718266668294</v>
+        <v>0.2458650104556746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2885128972738631</v>
+        <v>0.2871010502313677</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>138650</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118831</v>
+        <v>117435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>160101</v>
+        <v>162651</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.144156768381877</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1235505816027174</v>
+        <v>0.1220992677224263</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1664594806056305</v>
+        <v>0.1691112482356065</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -1337,19 +1337,19 @@
         <v>146138</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125155</v>
+        <v>124337</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>169992</v>
+        <v>169809</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.150907790944675</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1292400288779897</v>
+        <v>0.1283952798991029</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1755401758700117</v>
+        <v>0.1753515085894667</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>262</v>
@@ -1358,19 +1358,19 @@
         <v>284788</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>254772</v>
+        <v>254344</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>316942</v>
+        <v>317172</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1475438095587976</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1319932197642605</v>
+        <v>0.1317715323333118</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1642021542505935</v>
+        <v>0.1643212158304808</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>21634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13346</v>
+        <v>13893</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31624</v>
+        <v>33321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02249317680617998</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0138765700878996</v>
+        <v>0.0144450720770997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03287999573959206</v>
+        <v>0.03464453146285085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1408,19 +1408,19 @@
         <v>19893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11966</v>
+        <v>11919</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30723</v>
+        <v>30235</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02054257995882723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01235699073424235</v>
+        <v>0.01230761505795877</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03172541516873754</v>
+        <v>0.03122232166341687</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1429,19 +1429,19 @@
         <v>41527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29976</v>
+        <v>30037</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55783</v>
+        <v>57121</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02151454700897529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01553002808067998</v>
+        <v>0.01556144240630514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02890031995029507</v>
+        <v>0.02959329942617566</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1949</v>
+        <v>1936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11083</v>
+        <v>11004</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005170285127708471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002026385575219485</v>
+        <v>0.002012693673545611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01152306907153335</v>
+        <v>0.01144086754798282</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10183</v>
+        <v>9100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003241837374542659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001002254924972133</v>
+        <v>0.001006287049724502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01051585463055425</v>
+        <v>0.009396899510160778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1500,19 +1500,19 @@
         <v>8112</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3906</v>
+        <v>3956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15312</v>
+        <v>15427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004202767705458069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002023669843115642</v>
+        <v>0.002049551178313017</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007932795607155015</v>
+        <v>0.00799225744620295</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>407307</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>378249</v>
+        <v>378241</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>431085</v>
+        <v>431621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6002967862354348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.557470480454332</v>
+        <v>0.5574589246092916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6353417518035636</v>
+        <v>0.6361310667209993</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>427</v>
@@ -1625,19 +1625,19 @@
         <v>418764</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>393689</v>
+        <v>392507</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>443323</v>
+        <v>442748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6123697331013418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5757023142957967</v>
+        <v>0.5739744930762485</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6482837476691273</v>
+        <v>0.6474424248348288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>808</v>
@@ -1646,19 +1646,19 @@
         <v>826070</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>791312</v>
+        <v>792311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>862036</v>
+        <v>862957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6063568859091116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5808437042458965</v>
+        <v>0.5815763887324428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6327568186929132</v>
+        <v>0.6334326692430537</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>168930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146204</v>
+        <v>147713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193315</v>
+        <v>192176</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2489717660535982</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2154777666897393</v>
+        <v>0.2177022515005035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2849112605246661</v>
+        <v>0.2832323775539165</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -1696,19 +1696,19 @@
         <v>146554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>127701</v>
+        <v>126251</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169458</v>
+        <v>167764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.214309513252218</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1867405833284363</v>
+        <v>0.184620701791143</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2478038249794203</v>
+        <v>0.2453264711991024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>316</v>
@@ -1717,19 +1717,19 @@
         <v>315483</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>284767</v>
+        <v>287025</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>345350</v>
+        <v>347079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2315728071064888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2090261326492432</v>
+        <v>0.2106835832677325</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2534956794995294</v>
+        <v>0.2547648765522884</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>79885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>63740</v>
+        <v>65592</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98522</v>
+        <v>97892</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1177362813604695</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09394068211093703</v>
+        <v>0.09667149582167379</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1452043785552044</v>
+        <v>0.1442751850676329</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -1767,19 +1767,19 @@
         <v>89387</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72305</v>
+        <v>73960</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107139</v>
+        <v>108259</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.13071250958942</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1057342905294689</v>
+        <v>0.108154308396129</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1566725380255583</v>
+        <v>0.1583103774628202</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>165</v>
@@ -1788,19 +1788,19 @@
         <v>169272</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145711</v>
+        <v>144498</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>193676</v>
+        <v>193558</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1242497893986672</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1069554844996622</v>
+        <v>0.1060651502718978</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1421633690213425</v>
+        <v>0.1420765757775279</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>18829</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11047</v>
+        <v>11569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28432</v>
+        <v>29050</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0277505080484185</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01628173933677897</v>
+        <v>0.01705012882277129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04190356994999549</v>
+        <v>0.04281421959528803</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1838,19 +1838,19 @@
         <v>26081</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16218</v>
+        <v>16797</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36760</v>
+        <v>39614</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03813832371809468</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02371575359429101</v>
+        <v>0.02456284683657763</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05375505912377711</v>
+        <v>0.05792937404090926</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -1859,19 +1859,19 @@
         <v>44910</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33687</v>
+        <v>32963</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61062</v>
+        <v>60842</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03296474439429269</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0247271469148078</v>
+        <v>0.02419583749482497</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04482121446771658</v>
+        <v>0.04465955261553892</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>3559</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10482</v>
+        <v>9663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005244658302079003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001367649425241587</v>
+        <v>0.001361018428656639</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01544891751126655</v>
+        <v>0.01424197419956501</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>3057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8577</v>
+        <v>8861</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004469920338925546</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001324835045539088</v>
+        <v>0.001345803054735578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01254184532132268</v>
+        <v>0.01295803963153816</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1930,19 +1930,19 @@
         <v>6615</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2868</v>
+        <v>2714</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14936</v>
+        <v>14783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004855773191439644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002104935172022381</v>
+        <v>0.001992500319555165</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0109630516852395</v>
+        <v>0.01085142445284722</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>522304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>493229</v>
+        <v>491658</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>552241</v>
+        <v>551412</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5552457313467455</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5243368256134751</v>
+        <v>0.5226669372963825</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5870706248637241</v>
+        <v>0.5861890232082998</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>562</v>
@@ -2055,19 +2055,19 @@
         <v>582229</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>545763</v>
+        <v>550631</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>614705</v>
+        <v>612600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5611136111896455</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5259699999356234</v>
+        <v>0.5306608076778828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5924116009235443</v>
+        <v>0.5903825700124352</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1113</v>
@@ -2076,19 +2076,19 @@
         <v>1104534</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1061884</v>
+        <v>1056677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1151857</v>
+        <v>1147495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5583234684142848</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5367648547167743</v>
+        <v>0.5341330202833792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5822446950504246</v>
+        <v>0.5800396389921393</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>261308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236550</v>
+        <v>235571</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>286752</v>
+        <v>289319</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2777890820173579</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2514686686406174</v>
+        <v>0.2504285119405705</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3048369279252932</v>
+        <v>0.3075663631538917</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>230</v>
@@ -2126,19 +2126,19 @@
         <v>237132</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>213226</v>
+        <v>208934</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>267516</v>
+        <v>266530</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2285314570035675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2054926699471211</v>
+        <v>0.2013563173655457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2578141232462561</v>
+        <v>0.256863710282035</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>505</v>
@@ -2147,19 +2147,19 @@
         <v>498440</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>462947</v>
+        <v>460047</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>537927</v>
+        <v>536704</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2519531715313363</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2340121435735587</v>
+        <v>0.2325459967328886</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2719131043826863</v>
+        <v>0.2712949971800765</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>113087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>94298</v>
+        <v>96281</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>131883</v>
+        <v>136089</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1202196534384019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1002453320968979</v>
+        <v>0.1023535660883294</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1402008326747899</v>
+        <v>0.1446721110075054</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>144</v>
@@ -2197,19 +2197,19 @@
         <v>153031</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>130731</v>
+        <v>131873</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>176711</v>
+        <v>177965</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1474809686763839</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1259895363976525</v>
+        <v>0.1270900587460145</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1703026368638332</v>
+        <v>0.1715104325432986</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>266</v>
@@ -2218,19 +2218,19 @@
         <v>266118</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>235614</v>
+        <v>236238</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>297347</v>
+        <v>299415</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1345183716576123</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1190987664794449</v>
+        <v>0.119414606391846</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1503040156969732</v>
+        <v>0.1513493664376156</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>40620</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29198</v>
+        <v>29737</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55395</v>
+        <v>55028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04318238074393322</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03103961173184241</v>
+        <v>0.03161233949856855</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05888867504238667</v>
+        <v>0.05849876239415519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2268,19 +2268,19 @@
         <v>56493</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41887</v>
+        <v>41680</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72466</v>
+        <v>73109</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05444427884355674</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0403680519050543</v>
+        <v>0.04016790482213518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06983780467529387</v>
+        <v>0.07045755133806055</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2289,19 +2289,19 @@
         <v>97114</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>78686</v>
+        <v>78794</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119271</v>
+        <v>118094</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04908931172412381</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03977451559837622</v>
+        <v>0.03982923949430487</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06028954097233202</v>
+        <v>0.05969464629128736</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8401</v>
+        <v>8352</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003563152453561548</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0008915053182493259</v>
+        <v>0.0008880510799042592</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0089306651284641</v>
+        <v>0.008878654199575656</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2339,19 +2339,19 @@
         <v>8747</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4269</v>
+        <v>3634</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16137</v>
+        <v>16334</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008429684286846258</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00411420897148928</v>
+        <v>0.003502181202152938</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01555195876002296</v>
+        <v>0.01574199924119129</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2360,19 +2360,19 @@
         <v>12099</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6724</v>
+        <v>6255</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20724</v>
+        <v>21110</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006115676672642714</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003399113827032542</v>
+        <v>0.003161961530723877</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01047577579052523</v>
+        <v>0.01067091267713501</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1792439</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1735303</v>
+        <v>1727793</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1850961</v>
+        <v>1843303</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5473108123688698</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5298645675552757</v>
+        <v>0.5275714418274617</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5651801551273904</v>
+        <v>0.5628418243263791</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1805</v>
@@ -2485,19 +2485,19 @@
         <v>1838997</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1778589</v>
+        <v>1781403</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1897401</v>
+        <v>1891596</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5443690052771288</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5264875985889566</v>
+        <v>0.5273205010272364</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5616576191952807</v>
+        <v>0.559939288509635</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3546</v>
@@ -2506,19 +2506,19 @@
         <v>3631436</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3551357</v>
+        <v>3550651</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3712258</v>
+        <v>3710485</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5458170878865177</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5337808555254711</v>
+        <v>0.5336748495652567</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.557964822961778</v>
+        <v>0.5576983453382419</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>910523</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>861341</v>
+        <v>860260</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>961740</v>
+        <v>969597</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2780229764226403</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2630053126084893</v>
+        <v>0.2626755068010915</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2936615907714557</v>
+        <v>0.2960606989391774</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>844</v>
@@ -2556,19 +2556,19 @@
         <v>857408</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>807512</v>
+        <v>807753</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>912749</v>
+        <v>908041</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2538049221727298</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2390348345914941</v>
+        <v>0.2391063117190109</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2701866468014641</v>
+        <v>0.2687928686380436</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1748</v>
@@ -2577,19 +2577,19 @@
         <v>1767932</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1693862</v>
+        <v>1698676</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1841171</v>
+        <v>1838817</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2657260788287826</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2545931100128936</v>
+        <v>0.2553166677071625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2767342544700974</v>
+        <v>0.2763804424762834</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>458851</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>418247</v>
+        <v>415609</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>497260</v>
+        <v>500910</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.140107368407227</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1277093399588661</v>
+        <v>0.1269037395457767</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1518353814997676</v>
+        <v>0.1529499143519754</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>500</v>
@@ -2627,19 +2627,19 @@
         <v>524948</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>478869</v>
+        <v>485260</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>565458</v>
+        <v>570909</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1553920386493188</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1417521123958816</v>
+        <v>0.1436437458932927</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.167383493326449</v>
+        <v>0.1689970429344765</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>957</v>
@@ -2648,19 +2648,19 @@
         <v>983799</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>924607</v>
+        <v>928665</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1043917</v>
+        <v>1043175</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1478682736716779</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1389716106290749</v>
+        <v>0.1395815013229047</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1569042336817511</v>
+        <v>0.1567926721789628</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>100333</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>82172</v>
+        <v>81793</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>124743</v>
+        <v>119507</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03063616359821731</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02509073903462995</v>
+        <v>0.0249751221905885</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03808952444402064</v>
+        <v>0.03649066920952946</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>130</v>
@@ -2698,19 +2698,19 @@
         <v>139002</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>116978</v>
+        <v>116476</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>163039</v>
+        <v>162335</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04114663956390837</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03462709039329225</v>
+        <v>0.034478504181056</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0482618782602924</v>
+        <v>0.04805349210880171</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>228</v>
@@ -2719,19 +2719,19 @@
         <v>239336</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>211502</v>
+        <v>208832</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>270566</v>
+        <v>270605</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03597293612664137</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03178939464787043</v>
+        <v>0.03138818113034544</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04066699048916776</v>
+        <v>0.04067289746353467</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>12847</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7264</v>
+        <v>7117</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23099</v>
+        <v>22434</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003922679203045499</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002217948784156591</v>
+        <v>0.002173191139548887</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007053247212090214</v>
+        <v>0.006849994131325017</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2769,19 +2769,19 @@
         <v>17862</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10290</v>
+        <v>11179</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27783</v>
+        <v>28176</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005287394336914145</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003045939600139023</v>
+        <v>0.003309119123706352</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008224167779309522</v>
+        <v>0.008340463762639593</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>30</v>
@@ -2790,19 +2790,19 @@
         <v>30709</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20876</v>
+        <v>21227</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>42745</v>
+        <v>44833</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004615623486380425</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003137726240480731</v>
+        <v>0.003190552348283561</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006424780274650067</v>
+        <v>0.00673853436168811</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>452745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>424883</v>
+        <v>427307</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>474661</v>
+        <v>477199</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6471624901383478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6073365896967894</v>
+        <v>0.6108020879538694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6784899126565204</v>
+        <v>0.6821176300479561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>393</v>
@@ -3155,19 +3155,19 @@
         <v>417121</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>389185</v>
+        <v>389075</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>441658</v>
+        <v>444612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5984091859675322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5583315556680307</v>
+        <v>0.5581732748214485</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6336100252758362</v>
+        <v>0.6378486702591716</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>828</v>
@@ -3176,19 +3176,19 @@
         <v>869866</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>832623</v>
+        <v>832571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>905185</v>
+        <v>905154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6228300698675864</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5961642069353474</v>
+        <v>0.5961265051306338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6481189806522178</v>
+        <v>0.6480971356179647</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>175772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152897</v>
+        <v>153613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>201726</v>
+        <v>200373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2512520281334756</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2185546709658652</v>
+        <v>0.2195771275780055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2883516530322068</v>
+        <v>0.2864175159163881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -3226,19 +3226,19 @@
         <v>202525</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180303</v>
+        <v>177378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228571</v>
+        <v>227704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2905453768930356</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.258665993236555</v>
+        <v>0.2544689095490441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.327912603922673</v>
+        <v>0.3266677618930525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>353</v>
@@ -3247,19 +3247,19 @@
         <v>378297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>346089</v>
+        <v>341596</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>410697</v>
+        <v>411868</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2708630533167811</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2478018991630336</v>
+        <v>0.2445850679750017</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2940620478767645</v>
+        <v>0.2949005374323353</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>52058</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38907</v>
+        <v>39973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68525</v>
+        <v>68283</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07441296434660231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05561422542368372</v>
+        <v>0.05713880554108917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09795048252207703</v>
+        <v>0.0976047949112749</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -3297,19 +3297,19 @@
         <v>51655</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38944</v>
+        <v>36880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67612</v>
+        <v>67919</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07410457878361158</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05586991211843728</v>
+        <v>0.05290814156178436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09699674339487732</v>
+        <v>0.09743847995056613</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -3318,19 +3318,19 @@
         <v>103713</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85939</v>
+        <v>83159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124783</v>
+        <v>123890</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07425905135030908</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06153281228224235</v>
+        <v>0.05954237484169152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08934548759785764</v>
+        <v>0.08870616614947976</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>13293</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7096</v>
+        <v>7405</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21997</v>
+        <v>22656</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01900143499602508</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01014327288638461</v>
+        <v>0.01058464848572866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03144293683573393</v>
+        <v>0.03238436685423559</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3368,19 +3368,19 @@
         <v>20668</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12660</v>
+        <v>11930</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32311</v>
+        <v>31138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02965105934952639</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01816180105450656</v>
+        <v>0.01711432516149142</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04635353128143864</v>
+        <v>0.04467079127419628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -3389,19 +3389,19 @@
         <v>33961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23975</v>
+        <v>23773</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48763</v>
+        <v>49179</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02431658521819709</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01716600532797803</v>
+        <v>0.01702168795492971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03491484917148287</v>
+        <v>0.03521238396028167</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>5716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2100</v>
+        <v>1965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12177</v>
+        <v>11716</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008171082385549139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003001706247058578</v>
+        <v>0.002808538861345566</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01740661338438777</v>
+        <v>0.01674766805754421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3439,19 +3439,19 @@
         <v>5081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1954</v>
+        <v>1967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12108</v>
+        <v>11039</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00728979900629418</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002803507025521291</v>
+        <v>0.002822184932911663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01737037391959513</v>
+        <v>0.01583656766385797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -3460,19 +3460,19 @@
         <v>10798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5202</v>
+        <v>5974</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18605</v>
+        <v>18663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007731240247126344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003724597182856154</v>
+        <v>0.004277521859572897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01332167150789803</v>
+        <v>0.01336308356422098</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>610688</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>575657</v>
+        <v>575049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>642333</v>
+        <v>642256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6043721919529229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5697037064713565</v>
+        <v>0.5691022265517384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.635690079153997</v>
+        <v>0.6356139199950237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>522</v>
@@ -3585,19 +3585,19 @@
         <v>571806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>539905</v>
+        <v>537342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>603826</v>
+        <v>605626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5550876544070517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.52411950152146</v>
+        <v>0.5216311532390605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5861714984746557</v>
+        <v>0.587918755626186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1083</v>
@@ -3606,19 +3606,19 @@
         <v>1182494</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1136575</v>
+        <v>1137196</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1232984</v>
+        <v>1227013</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5794924130970265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5569896284292227</v>
+        <v>0.5572939511254876</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6042357562828954</v>
+        <v>0.6013093023826067</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>255663</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229307</v>
+        <v>226364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285749</v>
+        <v>282869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2530193021576693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.226935933551311</v>
+        <v>0.2240233713478756</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2827938135622511</v>
+        <v>0.2799437294702227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>301</v>
@@ -3656,19 +3656,19 @@
         <v>330513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302586</v>
+        <v>300313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>360449</v>
+        <v>364427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3208491669765556</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2937387919827015</v>
+        <v>0.2915327790692964</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3499102943680622</v>
+        <v>0.3537723522693769</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>537</v>
@@ -3677,19 +3677,19 @@
         <v>586176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546517</v>
+        <v>544919</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>630444</v>
+        <v>626988</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2872611175535938</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2678258351607522</v>
+        <v>0.2670426208661577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3089551942451984</v>
+        <v>0.3072616197648124</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>106294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88235</v>
+        <v>87708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>127728</v>
+        <v>127445</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1051945311447842</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08732256470344178</v>
+        <v>0.08680100440469189</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1264072594093973</v>
+        <v>0.126126645046043</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>95</v>
@@ -3727,19 +3727,19 @@
         <v>103550</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85060</v>
+        <v>82986</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123854</v>
+        <v>123586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1005228305635264</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08257324429777983</v>
+        <v>0.08055945478350077</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1202330378506962</v>
+        <v>0.1199722828673594</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>194</v>
@@ -3748,19 +3748,19 @@
         <v>209844</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>184515</v>
+        <v>183373</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>241257</v>
+        <v>240681</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1028361671805393</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0904233359004762</v>
+        <v>0.08986391773688597</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1182304680021407</v>
+        <v>0.1179478588766494</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>33573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21640</v>
+        <v>22924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47159</v>
+        <v>46732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03322555393064493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02141571518017205</v>
+        <v>0.02268740621328361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04667165852793731</v>
+        <v>0.04624875825112049</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3798,19 +3798,19 @@
         <v>18310</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10896</v>
+        <v>10838</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28893</v>
+        <v>28675</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0177741820245129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01057751967661739</v>
+        <v>0.0105215286616119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02804847602777532</v>
+        <v>0.02783646595253971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3819,19 +3819,19 @@
         <v>51882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37930</v>
+        <v>39438</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68729</v>
+        <v>69664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02542540534069473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01858787215966266</v>
+        <v>0.01932694574303961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03368131565119468</v>
+        <v>0.03413938076331163</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>4232</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10730</v>
+        <v>10885</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004188420813978658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001132908085642831</v>
+        <v>0.001122880433205829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01061900425084765</v>
+        <v>0.01077285983060483</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3869,19 +3869,19 @@
         <v>5940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1863</v>
+        <v>1113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15820</v>
+        <v>14816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005766166028353482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001808990562288868</v>
+        <v>0.001080160730225309</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01535738993989914</v>
+        <v>0.01438243269424064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3890,19 +3890,19 @@
         <v>10172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4488</v>
+        <v>5030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19894</v>
+        <v>20487</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004984896828145557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002199431482880227</v>
+        <v>0.002464982879843659</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009749038594554343</v>
+        <v>0.01003993211205419</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>450729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>421097</v>
+        <v>421898</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>478095</v>
+        <v>481392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.598413570270905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5590722821338791</v>
+        <v>0.560136573918896</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6347464934407573</v>
+        <v>0.6391233151517361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>414</v>
@@ -4015,19 +4015,19 @@
         <v>456984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>428971</v>
+        <v>428385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>486358</v>
+        <v>485206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5880067723008111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5519630393955367</v>
+        <v>0.5512088242226912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6258029848462053</v>
+        <v>0.6243210080543415</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>833</v>
@@ -4036,19 +4036,19 @@
         <v>907712</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>867262</v>
+        <v>869100</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>945821</v>
+        <v>948442</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5931286801050371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5666972242837052</v>
+        <v>0.5678982534587188</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.618030276095402</v>
+        <v>0.6197430862709982</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>189836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166275</v>
+        <v>165294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>217113</v>
+        <v>217936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2520372294831006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2207558947782596</v>
+        <v>0.219454558510647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2882524825007605</v>
+        <v>0.2893441011883131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -4086,19 +4086,19 @@
         <v>208858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>184195</v>
+        <v>185147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>235771</v>
+        <v>236071</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2687403450782406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2370062758856161</v>
+        <v>0.2382313745200195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3033698947846081</v>
+        <v>0.3037551044476067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>362</v>
@@ -4107,19 +4107,19 @@
         <v>398694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365377</v>
+        <v>362139</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>438590</v>
+        <v>434488</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2605195822300055</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2387491161393048</v>
+        <v>0.2366330967878011</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2865888126404916</v>
+        <v>0.2839087595519895</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>90402</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>72419</v>
+        <v>73016</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111284</v>
+        <v>112086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1200227270241599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09614756617409606</v>
+        <v>0.09693965192777471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1477468289997887</v>
+        <v>0.1488114464181772</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -4157,19 +4157,19 @@
         <v>83953</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68695</v>
+        <v>67399</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>106432</v>
+        <v>103889</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1080231277505436</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08839122200478274</v>
+        <v>0.08672309709815369</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1369469405516986</v>
+        <v>0.1336753486365625</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -4178,19 +4178,19 @@
         <v>174355</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>148799</v>
+        <v>144946</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202032</v>
+        <v>202110</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1139289636612377</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09722999489638583</v>
+        <v>0.09471253249666486</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1320140927469187</v>
+        <v>0.1320655255562355</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>13334</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7666</v>
+        <v>7293</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22561</v>
+        <v>21968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01770343730915718</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01017738593566163</v>
+        <v>0.009682255881780039</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02995303816858715</v>
+        <v>0.02916576818216432</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4228,19 +4228,19 @@
         <v>19209</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11867</v>
+        <v>11339</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29950</v>
+        <v>30752</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02471704114789239</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01526940074738677</v>
+        <v>0.01458982556474266</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03853735512578321</v>
+        <v>0.03956955409280034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -4249,19 +4249,19 @@
         <v>32544</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22271</v>
+        <v>21622</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45795</v>
+        <v>45848</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02126515975838148</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01455286345992489</v>
+        <v>0.01412836871857925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0299241309330199</v>
+        <v>0.02995874168861539</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>8905</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3610</v>
+        <v>3604</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17474</v>
+        <v>17892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01182303591267732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004793012489352899</v>
+        <v>0.004785178015041863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02320005022804538</v>
+        <v>0.02375491923523697</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -4299,19 +4299,19 @@
         <v>8170</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3171</v>
+        <v>4017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15397</v>
+        <v>16267</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01051271372251239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004080146991687373</v>
+        <v>0.005168536462607189</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01981213362601485</v>
+        <v>0.02093058868196051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -4320,19 +4320,19 @@
         <v>17075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10033</v>
+        <v>9653</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29160</v>
+        <v>28686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01115761424533821</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006555905403998483</v>
+        <v>0.00630769852665349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0190540772975663</v>
+        <v>0.01874436501146286</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>534873</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>503042</v>
+        <v>502799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>563973</v>
+        <v>567194</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.566285180953653</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5325845164922546</v>
+        <v>0.532327812319469</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5970939238182087</v>
+        <v>0.600504314144092</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>538</v>
@@ -4445,19 +4445,19 @@
         <v>560925</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>526959</v>
+        <v>527139</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>594619</v>
+        <v>590681</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5353323227900584</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5029159257865335</v>
+        <v>0.5030876755580928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5674882952398381</v>
+        <v>0.5637302250577747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1058</v>
@@ -4466,19 +4466,19 @@
         <v>1095798</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1049297</v>
+        <v>1053180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1140890</v>
+        <v>1140228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5500064843051073</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5266665533309917</v>
+        <v>0.5286154899108623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5726390068315903</v>
+        <v>0.5723068194571758</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>269474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240880</v>
+        <v>243133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>295612</v>
+        <v>298778</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2852998086374203</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2550260832283581</v>
+        <v>0.2574122223005549</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3129724827447972</v>
+        <v>0.3163249065000412</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>314</v>
@@ -4516,19 +4516,19 @@
         <v>331356</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>301861</v>
+        <v>303256</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>363076</v>
+        <v>364156</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3162375186755262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.288088547457642</v>
+        <v>0.2894190744921958</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3465100765203851</v>
+        <v>0.3475403098968786</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>570</v>
@@ -4537,19 +4537,19 @@
         <v>600830</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>558440</v>
+        <v>559998</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>644491</v>
+        <v>640803</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3015705385987437</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2802939651743893</v>
+        <v>0.2810757993614221</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3234848718588116</v>
+        <v>0.3216339632044131</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>112474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>93031</v>
+        <v>93800</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>133907</v>
+        <v>135880</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.119079533917082</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09849464953157372</v>
+        <v>0.09930878256656774</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1417708505876877</v>
+        <v>0.1438598632389925</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>116</v>
@@ -4587,19 +4587,19 @@
         <v>122002</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>102181</v>
+        <v>103196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>145621</v>
+        <v>144033</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1164350859007103</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09751858512063205</v>
+        <v>0.09848758866198949</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1389766651949909</v>
+        <v>0.1374608325451808</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>220</v>
@@ -4608,19 +4608,19 @@
         <v>234476</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>204121</v>
+        <v>205112</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>264856</v>
+        <v>265478</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1176887684235097</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1024531750785262</v>
+        <v>0.102950435026031</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1329375989315532</v>
+        <v>0.133249458559435</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>21609</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12834</v>
+        <v>13894</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31533</v>
+        <v>33360</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02287859730076179</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01358787152708175</v>
+        <v>0.0147103111766533</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03338465166384687</v>
+        <v>0.03531933737595369</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -4658,19 +4658,19 @@
         <v>18963</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11792</v>
+        <v>10938</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29840</v>
+        <v>29588</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01809768474781571</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01125408175105718</v>
+        <v>0.0104393572459156</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02847810616347501</v>
+        <v>0.02823821167904951</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -4679,19 +4679,19 @@
         <v>40572</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30145</v>
+        <v>29319</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56639</v>
+        <v>55105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02036422448448437</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01513043453476101</v>
+        <v>0.01471565065476913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02842843136995388</v>
+        <v>0.02765844084396509</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>6099</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2251</v>
+        <v>2294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12594</v>
+        <v>12512</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006456879191082894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002382669409010729</v>
+        <v>0.002428215233739999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0133337339961294</v>
+        <v>0.01324636285876703</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -4729,19 +4729,19 @@
         <v>14562</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8074</v>
+        <v>7747</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24649</v>
+        <v>23878</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01389738788588942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007705426072916005</v>
+        <v>0.007393583951433891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0235239126038788</v>
+        <v>0.02278837162082642</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -4750,19 +4750,19 @@
         <v>20661</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12856</v>
+        <v>12803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31473</v>
+        <v>32245</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01036998418815485</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006452641389230723</v>
+        <v>0.006426011465744486</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0157970189960312</v>
+        <v>0.01618474667244358</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2049034</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1988401</v>
+        <v>1990380</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2111931</v>
+        <v>2108269</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6012830934867323</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5834904542627928</v>
+        <v>0.5840712132625486</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6197398171546897</v>
+        <v>0.6186653645420247</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1867</v>
@@ -4875,19 +4875,19 @@
         <v>2006835</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1940043</v>
+        <v>1948790</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2064036</v>
+        <v>2069396</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5649637502321067</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.546160367857824</v>
+        <v>0.5486228689293985</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5810669115662774</v>
+        <v>0.582575655112218</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3802</v>
@@ -4896,19 +4896,19 @@
         <v>4055870</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3964281</v>
+        <v>3975583</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4136669</v>
+        <v>4135888</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5827467093464362</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5695872000132077</v>
+        <v>0.5712111566495621</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5943558408841436</v>
+        <v>0.5942436821358834</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>890745</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>838782</v>
+        <v>839766</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>948401</v>
+        <v>949323</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.261386595637175</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.246138228975555</v>
+        <v>0.2464269688301875</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2783054442626592</v>
+        <v>0.2785760099379417</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>995</v>
@@ -4946,19 +4946,19 @@
         <v>1073251</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1019687</v>
+        <v>1013660</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1136696</v>
+        <v>1129178</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3021413396532371</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2870618715821071</v>
+        <v>0.285365325499589</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3200024362796789</v>
+        <v>0.317885988833281</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1822</v>
@@ -4967,19 +4967,19 @@
         <v>1963996</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1886243</v>
+        <v>1883069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2040750</v>
+        <v>2039112</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.282186685146639</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2710150323438512</v>
+        <v>0.2705590496083616</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2932146487036661</v>
+        <v>0.2929792931977236</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>361228</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>326285</v>
+        <v>323841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>402501</v>
+        <v>401232</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.106001270170006</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09574747089035744</v>
+        <v>0.09503021298819929</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1181127823586671</v>
+        <v>0.1177404704238118</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>331</v>
@@ -5017,19 +5017,19 @@
         <v>361159</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>326749</v>
+        <v>323310</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>403140</v>
+        <v>399810</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.101673451177184</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09198630918997798</v>
+        <v>0.09101812720617221</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1134917446064968</v>
+        <v>0.1125544311084095</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>661</v>
@@ -5038,19 +5038,19 @@
         <v>722387</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>669955</v>
+        <v>668974</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>776411</v>
+        <v>770924</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1037924715477897</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09625903738453934</v>
+        <v>0.09611805282601099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1115546019325572</v>
+        <v>0.1107662193147291</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>81810</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>65177</v>
+        <v>64094</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>103503</v>
+        <v>101702</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02400681858726612</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01912608521063166</v>
+        <v>0.01880818220073376</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03037273383785631</v>
+        <v>0.02984410214782108</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>69</v>
@@ -5088,19 +5088,19 @@
         <v>77150</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>60787</v>
+        <v>61133</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>95566</v>
+        <v>97866</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02171927378716675</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01711272921226108</v>
+        <v>0.01721009112977093</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02690358913895276</v>
+        <v>0.02755109291582919</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>145</v>
@@ -5109,19 +5109,19 @@
         <v>158960</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>135256</v>
+        <v>137504</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>186382</v>
+        <v>186329</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02283931925074168</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01943356354006685</v>
+        <v>0.01975658226657891</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0267793447933042</v>
+        <v>0.02677171710594014</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>24952</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15748</v>
+        <v>16608</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37246</v>
+        <v>38236</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007322222118820622</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004621182819372711</v>
+        <v>0.004873585351592268</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01092958689162848</v>
+        <v>0.01122012493620227</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>30</v>
@@ -5159,19 +5159,19 @@
         <v>33753</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22767</v>
+        <v>22173</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>47194</v>
+        <v>47217</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0095021851503054</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006409268674348849</v>
+        <v>0.006242207166566708</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01328617851232245</v>
+        <v>0.01329252490351979</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>53</v>
@@ -5180,19 +5180,19 @@
         <v>58706</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>44310</v>
+        <v>44685</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76417</v>
+        <v>76325</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008434814708393393</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006366504697514188</v>
+        <v>0.006420272274977857</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01097955334060899</v>
+        <v>0.01096642745810108</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>337233</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>308245</v>
+        <v>309527</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>360577</v>
+        <v>365426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5013474595984018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4582512579725092</v>
+        <v>0.4601583627500591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5360507160149602</v>
+        <v>0.5432603440465485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>320</v>
@@ -5545,19 +5545,19 @@
         <v>321140</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>297270</v>
+        <v>294316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>347847</v>
+        <v>347768</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4786998783247952</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4431189311994614</v>
+        <v>0.4387151229975811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5185103429349492</v>
+        <v>0.5183928207692007</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>644</v>
@@ -5566,19 +5566,19 @@
         <v>658374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>625735</v>
+        <v>624426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>697300</v>
+        <v>698482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4900388017943981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4657449742980017</v>
+        <v>0.4647703831250113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5190124357721572</v>
+        <v>0.5198915836384632</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>221496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199215</v>
+        <v>197037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>247524</v>
+        <v>248773</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3292862650446335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2961630793173103</v>
+        <v>0.2929240698418564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3679814144718403</v>
+        <v>0.3698375320468018</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>226</v>
@@ -5616,19 +5616,19 @@
         <v>228309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203956</v>
+        <v>206179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253835</v>
+        <v>253982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3403229123004045</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3040228377306675</v>
+        <v>0.3073351902170731</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3783737817591076</v>
+        <v>0.3785922010138276</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>442</v>
@@ -5637,19 +5637,19 @@
         <v>449805</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>413684</v>
+        <v>413050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>482326</v>
+        <v>483303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3347972141217636</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3079116737222209</v>
+        <v>0.3074399979488591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3590031143780379</v>
+        <v>0.3597308075739946</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>87701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70659</v>
+        <v>70564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106170</v>
+        <v>105741</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1303812634376393</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1050456381526459</v>
+        <v>0.1049043322756671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1578381792302098</v>
+        <v>0.1571991695782853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -5687,19 +5687,19 @@
         <v>99306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82001</v>
+        <v>82533</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120419</v>
+        <v>118172</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1480280613267703</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1222328328216424</v>
+        <v>0.1230258518235572</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1795002994869847</v>
+        <v>0.1761506828819457</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>183</v>
@@ -5708,19 +5708,19 @@
         <v>187008</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>161967</v>
+        <v>162914</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>216714</v>
+        <v>214283</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1391928710108138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.120554486865111</v>
+        <v>0.1212596792683296</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1613041259325549</v>
+        <v>0.1594943103074342</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>23208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15578</v>
+        <v>14411</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35845</v>
+        <v>33840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03450146167120974</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02315968378327881</v>
+        <v>0.02142460383964884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05328965023417299</v>
+        <v>0.05030828448802108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5758,19 +5758,19 @@
         <v>16364</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9737</v>
+        <v>9458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25835</v>
+        <v>26792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02439215339435776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0145145618932804</v>
+        <v>0.0140980499984105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03851012856960486</v>
+        <v>0.03993643189926177</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -5779,19 +5779,19 @@
         <v>39571</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28543</v>
+        <v>28562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54186</v>
+        <v>54357</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02945356244713972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02124526318110926</v>
+        <v>0.02125934903767942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04033190571080761</v>
+        <v>0.04045880431366296</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>3016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8071</v>
+        <v>8058</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004483550248115734</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001467240395519418</v>
+        <v>0.001471931028747944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0119993791072812</v>
+        <v>0.01197926384299701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -5829,19 +5829,19 @@
         <v>5741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2049</v>
+        <v>2096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12742</v>
+        <v>13297</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008556994653672262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003054363413780094</v>
+        <v>0.003123992912898836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01899427703878534</v>
+        <v>0.01982138029474624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -5850,19 +5850,19 @@
         <v>8756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3752</v>
+        <v>4148</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17174</v>
+        <v>16014</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006517550625884825</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002793025600028547</v>
+        <v>0.003087121069045442</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01278324846438595</v>
+        <v>0.01191945816754041</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>556036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>522982</v>
+        <v>524299</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>587984</v>
+        <v>588230</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5460142159068742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5135562546880359</v>
+        <v>0.5148493925377418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5773866342696696</v>
+        <v>0.5776283658880612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>534</v>
@@ -5975,19 +5975,19 @@
         <v>559031</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>524822</v>
+        <v>526956</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>590582</v>
+        <v>592120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5365525392056607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5037191559075354</v>
+        <v>0.5057666783775816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5668340214049062</v>
+        <v>0.5683107314463607</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1054</v>
@@ -5996,19 +5996,19 @@
         <v>1115067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1067694</v>
+        <v>1067934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1164714</v>
+        <v>1162520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5412293226825746</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5182352743723607</v>
+        <v>0.5183520569655297</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5653268968186401</v>
+        <v>0.5642619804576571</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>307436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278635</v>
+        <v>277735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>336574</v>
+        <v>334583</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3018955001801399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2736133999018662</v>
+        <v>0.2727291363090506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3305077914117361</v>
+        <v>0.328552876956851</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>300</v>
@@ -6046,19 +6046,19 @@
         <v>326297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>295677</v>
+        <v>297156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354881</v>
+        <v>356536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3131767445640583</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2837877647607482</v>
+        <v>0.2852073560411119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.340610621146135</v>
+        <v>0.3421995101166981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -6067,19 +6067,19 @@
         <v>633734</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591851</v>
+        <v>591344</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>677180</v>
+        <v>676897</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3076005724964826</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2872716960576978</v>
+        <v>0.287025600665516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3286884112419719</v>
+        <v>0.328551197782164</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>133871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112790</v>
+        <v>115198</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161146</v>
+        <v>159118</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1314577928223743</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1107570240205022</v>
+        <v>0.1131217800418407</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1582414160852345</v>
+        <v>0.1562497117731537</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>124</v>
@@ -6117,19 +6117,19 @@
         <v>135788</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114001</v>
+        <v>113804</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>159429</v>
+        <v>157364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.130328048448328</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1094173642662712</v>
+        <v>0.109227533158009</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1530185834048006</v>
+        <v>0.1510362758459685</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>247</v>
@@ -6138,19 +6138,19 @@
         <v>269659</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>236930</v>
+        <v>240268</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>302367</v>
+        <v>303440</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1308864663681665</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1150004763202086</v>
+        <v>0.1166207665783999</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1467624686943854</v>
+        <v>0.1472830484767352</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>15968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9441</v>
+        <v>9239</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26537</v>
+        <v>26470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01568033893101371</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009270602969992152</v>
+        <v>0.009072890844712212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02605823074906109</v>
+        <v>0.02599281445932092</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -6188,19 +6188,19 @@
         <v>13719</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6866</v>
+        <v>7312</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23533</v>
+        <v>24775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01316693527835331</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006589967772398385</v>
+        <v>0.00701825202013936</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02258672282727582</v>
+        <v>0.02377914256367581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -6209,19 +6209,19 @@
         <v>29687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20991</v>
+        <v>20259</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43004</v>
+        <v>43817</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01440927794601916</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01018874897077631</v>
+        <v>0.009833394739782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02087309675088164</v>
+        <v>0.02126790082206935</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>5043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1955</v>
+        <v>1894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11293</v>
+        <v>10697</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004952152159597877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001920030384165419</v>
+        <v>0.001859847736525398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0110898653498803</v>
+        <v>0.01050448193719398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6259,19 +6259,19 @@
         <v>7060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2990</v>
+        <v>2215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16482</v>
+        <v>16040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006775732503599791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002869454388444466</v>
+        <v>0.002126189934904521</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01581931091282596</v>
+        <v>0.01539517461943432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -6280,19 +6280,19 @@
         <v>12103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5679</v>
+        <v>6220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20613</v>
+        <v>20939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005874360506757047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002756496026499444</v>
+        <v>0.003018901252052468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01000497530792812</v>
+        <v>0.01016354146661566</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>315602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>286662</v>
+        <v>288417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342285</v>
+        <v>345182</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4175164044110387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3792305502283993</v>
+        <v>0.3815534753997203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4528160492596917</v>
+        <v>0.4566491057140025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -6405,19 +6405,19 @@
         <v>307993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>280359</v>
+        <v>280772</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>337254</v>
+        <v>336484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3964270324038684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3608579520147747</v>
+        <v>0.3613902116454065</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.434089205088342</v>
+        <v>0.433097709767593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>584</v>
@@ -6426,19 +6426,19 @@
         <v>623596</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>581943</v>
+        <v>581889</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>662672</v>
+        <v>664024</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4068271160534599</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3796532541633969</v>
+        <v>0.379618056294452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4323202817383111</v>
+        <v>0.4332024347800312</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>263216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237537</v>
+        <v>237688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>292662</v>
+        <v>293531</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3482134080453335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3142430501932827</v>
+        <v>0.314442668495539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3871682523299274</v>
+        <v>0.3883188133606503</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>274</v>
@@ -6476,19 +6476,19 @@
         <v>291145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>263318</v>
+        <v>262243</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>316632</v>
+        <v>316879</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3747412168957259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3389246306052762</v>
+        <v>0.3375402695195628</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4075462281679887</v>
+        <v>0.4078647210540099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>515</v>
@@ -6497,19 +6497,19 @@
         <v>554361</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>514826</v>
+        <v>512083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>594299</v>
+        <v>593585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3616592042596619</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3358669449716931</v>
+        <v>0.334077399706166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3877141375952707</v>
+        <v>0.3872484502621328</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>164863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>141744</v>
+        <v>143133</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190629</v>
+        <v>188463</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2181005018496114</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1875159860041323</v>
+        <v>0.1893543065125574</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2521872238325122</v>
+        <v>0.2493215558167669</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>145</v>
@@ -6547,19 +6547,19 @@
         <v>158883</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>136921</v>
+        <v>137721</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>184774</v>
+        <v>183538</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2045028853134784</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1762348368502892</v>
+        <v>0.1772652408229374</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2378282861250415</v>
+        <v>0.2362374556832103</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>294</v>
@@ -6568,19 +6568,19 @@
         <v>323746</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>291742</v>
+        <v>289341</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>357865</v>
+        <v>355069</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.211208459541235</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.190329684130966</v>
+        <v>0.1887629749625793</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2334672930514793</v>
+        <v>0.2316429718425715</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>9815</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4475</v>
+        <v>4320</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17911</v>
+        <v>17548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01298468643644606</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005919510379558432</v>
+        <v>0.005714408883145838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02369431992513875</v>
+        <v>0.02321497042805998</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6618,19 +6618,19 @@
         <v>16882</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9630</v>
+        <v>10181</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26910</v>
+        <v>27770</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02172951431437661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01239533569005177</v>
+        <v>0.01310451405373539</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03463658736102256</v>
+        <v>0.03574361583386969</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -6639,19 +6639,19 @@
         <v>26697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17348</v>
+        <v>17510</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38393</v>
+        <v>39778</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01741706056275063</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01131786914326628</v>
+        <v>0.01142327141633625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02504717030204651</v>
+        <v>0.02595071754322052</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9937</v>
+        <v>10115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003184999257570412</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01314639234783775</v>
+        <v>0.01338114060176656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6952</v>
+        <v>6946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002599351072550664</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008948203938929675</v>
+        <v>0.008940615814002378</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6710,19 +6710,19 @@
         <v>4427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1880</v>
+        <v>1434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10694</v>
+        <v>11120</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002888159582892555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001226706320240048</v>
+        <v>0.0009354180081536524</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006976401737306437</v>
+        <v>0.007254255430066832</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>495502</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>468081</v>
+        <v>463968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>526209</v>
+        <v>529034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5297757470338296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5004578155352126</v>
+        <v>0.4960609399659365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5626066287156206</v>
+        <v>0.5656275723385318</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>529</v>
@@ -6835,19 +6835,19 @@
         <v>567219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>533189</v>
+        <v>532023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>601758</v>
+        <v>599560</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.544292370299328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.51163788998034</v>
+        <v>0.5105188467537283</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5774356716532487</v>
+        <v>0.5753263414439531</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1016</v>
@@ -6856,19 +6856,19 @@
         <v>1062721</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1012560</v>
+        <v>1021049</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1104066</v>
+        <v>1110514</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5374261398312524</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5120591070591621</v>
+        <v>0.5163522078047964</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5583344284357211</v>
+        <v>0.5615954858166655</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>286950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>258167</v>
+        <v>258606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>313072</v>
+        <v>316732</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3067985796924327</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2760243431232809</v>
+        <v>0.2764940008937119</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3347275494512396</v>
+        <v>0.3386407438656407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>275</v>
@@ -6906,19 +6906,19 @@
         <v>300193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>270375</v>
+        <v>269793</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>333318</v>
+        <v>329599</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2880597888310144</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2594467213768345</v>
+        <v>0.2588884366944462</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3198453995498277</v>
+        <v>0.3162772069779363</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>565</v>
@@ -6927,19 +6927,19 @@
         <v>587144</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>547000</v>
+        <v>543025</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>627138</v>
+        <v>624755</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2969230660818171</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.276622339791862</v>
+        <v>0.2746118800058774</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3171486983344178</v>
+        <v>0.3159435409576878</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>127480</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>107924</v>
+        <v>107059</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>148115</v>
+        <v>147529</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1362981559757154</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.11538937505949</v>
+        <v>0.1144647326200637</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1583606112771677</v>
+        <v>0.1577338122589011</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>115</v>
@@ -6977,19 +6977,19 @@
         <v>131139</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>108798</v>
+        <v>111612</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>153605</v>
+        <v>157088</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.125838437074187</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1044004196027517</v>
+        <v>0.107100736276561</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1473966156785506</v>
+        <v>0.1507384454989307</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>244</v>
@@ -6998,19 +6998,19 @@
         <v>258619</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>230265</v>
+        <v>230304</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>290928</v>
+        <v>290130</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1307857887616742</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1164467763756482</v>
+        <v>0.1164666730610815</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.147124608288122</v>
+        <v>0.146720754869398</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>16695</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9623</v>
+        <v>9774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27251</v>
+        <v>25719</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01784930031450573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01028829743221485</v>
+        <v>0.01045039230509207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02913625139660563</v>
+        <v>0.0274974933345516</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -7048,19 +7048,19 @@
         <v>36471</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25651</v>
+        <v>24104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50010</v>
+        <v>49620</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03499718993764552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02461452600267183</v>
+        <v>0.02312940187042467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04798823523617767</v>
+        <v>0.04761442377207907</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -7069,19 +7069,19 @@
         <v>53166</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39446</v>
+        <v>40627</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70012</v>
+        <v>69490</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02688639446956765</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01994798449756751</v>
+        <v>0.02054514480849732</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03540543580108056</v>
+        <v>0.03514187070361734</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>8678</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4059</v>
+        <v>3466</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16762</v>
+        <v>15924</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009278216983516571</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004339231161069766</v>
+        <v>0.003705987753898039</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01792101634041575</v>
+        <v>0.01702567331592406</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -7119,19 +7119,19 @@
         <v>7099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2295</v>
+        <v>2827</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14451</v>
+        <v>16461</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006812213857825178</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002202139436442616</v>
+        <v>0.002712608331831517</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01386659561189051</v>
+        <v>0.01579553820282893</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -7140,19 +7140,19 @@
         <v>15777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8996</v>
+        <v>8717</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26082</v>
+        <v>26367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007978610855688602</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004549129647627454</v>
+        <v>0.004408458387042233</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.013189924764122</v>
+        <v>0.01333401797663852</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1704373</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1644435</v>
+        <v>1645718</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1767790</v>
+        <v>1764426</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5039219662872175</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4862003466501291</v>
+        <v>0.4865796192829414</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5226719295528981</v>
+        <v>0.5216774605425508</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1676</v>
@@ -7265,19 +7265,19 @@
         <v>1755384</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1694294</v>
+        <v>1691161</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1815705</v>
+        <v>1817023</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4970225740121057</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4797254495959223</v>
+        <v>0.4788385350320883</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5141020068770247</v>
+        <v>0.5144753120685176</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3298</v>
@@ -7286,19 +7286,19 @@
         <v>3459758</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3369816</v>
+        <v>3379140</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3539473</v>
+        <v>3546416</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.500397637184664</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4873889714436048</v>
+        <v>0.4887375992098416</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5119271058180545</v>
+        <v>0.5129313739978236</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1079098</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1025656</v>
+        <v>1027381</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1134957</v>
+        <v>1139404</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3190505940603913</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3032495889481724</v>
+        <v>0.3037596077287945</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3355658844046405</v>
+        <v>0.3368806882063367</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1075</v>
@@ -7336,19 +7336,19 @@
         <v>1145945</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1088031</v>
+        <v>1085687</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1199755</v>
+        <v>1206257</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3244648128780191</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3080669483025269</v>
+        <v>0.3074034616334678</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3397007029548557</v>
+        <v>0.3415418128648164</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2107</v>
@@ -7357,19 +7357,19 @@
         <v>2225043</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2148195</v>
+        <v>2152329</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2303874</v>
+        <v>2302855</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3218162708309949</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3107013777864134</v>
+        <v>0.311299394431305</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.333217869066293</v>
+        <v>0.3330704498212596</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>513915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>471882</v>
+        <v>468244</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>561781</v>
+        <v>558002</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1519463026051951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1395185400929125</v>
+        <v>0.1384429405539822</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1660985498487156</v>
+        <v>0.1649811361883341</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>482</v>
@@ -7407,19 +7407,19 @@
         <v>525116</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>483233</v>
+        <v>482698</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>571578</v>
+        <v>571648</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1486823332550923</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1368235238697102</v>
+        <v>0.1366721101488433</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1618375108430046</v>
+        <v>0.1618573877635517</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>968</v>
@@ -7428,19 +7428,19 @@
         <v>1039032</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>976459</v>
+        <v>975236</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1098679</v>
+        <v>1095516</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1502790105145706</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1412289270738218</v>
+        <v>0.1410520612674974</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1589060572276147</v>
+        <v>0.1584485505137918</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>65685</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50735</v>
+        <v>51405</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>83242</v>
+        <v>84471</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01942081445431917</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0150006566695482</v>
+        <v>0.01519865980685744</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02461178319092127</v>
+        <v>0.0249751080516239</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>75</v>
@@ -7478,19 +7478,19 @@
         <v>83436</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64507</v>
+        <v>66983</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>103697</v>
+        <v>103242</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02362415342016299</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0182645097966093</v>
+        <v>0.01896572623006909</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02936106278323783</v>
+        <v>0.02923214958391918</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>138</v>
@@ -7499,19 +7499,19 @@
         <v>149121</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>122788</v>
+        <v>127143</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>175654</v>
+        <v>175902</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02156795281876019</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01775932363144771</v>
+        <v>0.01838922450303127</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02540551194063098</v>
+        <v>0.02544136401935648</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>19144</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11825</v>
+        <v>11298</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29800</v>
+        <v>30260</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005660322592876801</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00349631487615899</v>
+        <v>0.003340395759086126</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008810875176192969</v>
+        <v>0.00894673055922858</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -7549,19 +7549,19 @@
         <v>21919</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13620</v>
+        <v>13260</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34847</v>
+        <v>33697</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006206126434619869</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003856320817897307</v>
+        <v>0.003754585346110565</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.009866699100042042</v>
+        <v>0.009540955726043189</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -7570,19 +7570,19 @@
         <v>41063</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>28983</v>
+        <v>28405</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55656</v>
+        <v>55724</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005939128651010296</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004191990325205908</v>
+        <v>0.004108349703268671</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.008049728913125685</v>
+        <v>0.00805953355699719</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>431167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>401936</v>
+        <v>401549</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>458553</v>
+        <v>456786</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6270182146405701</v>
+        <v>0.6270182146405702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.584508867735259</v>
+        <v>0.5839471286181168</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.666843773227999</v>
+        <v>0.6642735977934234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>667</v>
@@ -7935,19 +7935,19 @@
         <v>429426</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>408231</v>
+        <v>407891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>450301</v>
+        <v>451824</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.591359774733763</v>
+        <v>0.5913597747337629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5621718395267531</v>
+        <v>0.5617046413775167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6201061401049304</v>
+        <v>0.6222045221049833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1093</v>
@@ -7956,19 +7956,19 @@
         <v>860593</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>825402</v>
+        <v>824442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>897135</v>
+        <v>894534</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6087032329791078</v>
+        <v>0.6087032329791079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5838126393261148</v>
+        <v>0.5831329910444462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6345497315925432</v>
+        <v>0.6327096248324491</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>164709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142897</v>
+        <v>145064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189101</v>
+        <v>191007</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2395259924060127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2078056417423671</v>
+        <v>0.210956494987917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2749972364957591</v>
+        <v>0.2777683429774315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>368</v>
@@ -8006,19 +8006,19 @@
         <v>193777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176378</v>
+        <v>175107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212863</v>
+        <v>212654</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2668497566306214</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2428890092190278</v>
+        <v>0.2411390977323714</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2931322187175138</v>
+        <v>0.2928445027700147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>567</v>
@@ -8027,19 +8027,19 @@
         <v>358487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>328819</v>
+        <v>329142</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>389590</v>
+        <v>388878</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2535600960292702</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.232575801167834</v>
+        <v>0.2328041608237544</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2755596658597176</v>
+        <v>0.2750557136292643</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>57702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42830</v>
+        <v>44346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74752</v>
+        <v>74101</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0839118914009587</v>
+        <v>0.08391189140095869</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06228481624587554</v>
+        <v>0.06448903134383518</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1087066792439065</v>
+        <v>0.1077605170275001</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>127</v>
@@ -8077,19 +8077,19 @@
         <v>68657</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57377</v>
+        <v>56851</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83234</v>
+        <v>81938</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09454648641988529</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07901411153516906</v>
+        <v>0.07828942935690897</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1146214332115544</v>
+        <v>0.1128366329384772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>189</v>
@@ -8098,19 +8098,19 @@
         <v>126358</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>109329</v>
+        <v>109137</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149526</v>
+        <v>148002</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08937406005605841</v>
+        <v>0.08937406005605843</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07732904957448596</v>
+        <v>0.07719353507353448</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1057608675068453</v>
+        <v>0.1046826048189674</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>19399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12744</v>
+        <v>12465</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30091</v>
+        <v>30008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02821072536613609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01853204108688887</v>
+        <v>0.01812763176106767</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04375982343219886</v>
+        <v>0.04363824510090335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -8148,19 +8148,19 @@
         <v>25341</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18329</v>
+        <v>18473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33091</v>
+        <v>34107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03489737692100917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02524100486725077</v>
+        <v>0.02543860562216601</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04556929991726911</v>
+        <v>0.04696847167592542</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -8169,19 +8169,19 @@
         <v>44740</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35008</v>
+        <v>34792</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57390</v>
+        <v>56900</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03164514091892393</v>
+        <v>0.03164514091892392</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0247614410415711</v>
+        <v>0.02460875921513021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04059227068452258</v>
+        <v>0.04024573234432368</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>14670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8573</v>
+        <v>8466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24703</v>
+        <v>25424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02133317618632237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01246702492311707</v>
+        <v>0.01231224224339394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03592467104687335</v>
+        <v>0.03697213643048036</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -8219,19 +8219,19 @@
         <v>8966</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5203</v>
+        <v>5408</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13912</v>
+        <v>14346</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01234660529472116</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007165295718704352</v>
+        <v>0.00744707619368003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01915818665573476</v>
+        <v>0.01975555149594129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -8240,19 +8240,19 @@
         <v>23635</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15105</v>
+        <v>16137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33837</v>
+        <v>34000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01671747001663974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01068419659315648</v>
+        <v>0.01141380779610556</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02393308489656479</v>
+        <v>0.02404840586316798</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>630905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>593529</v>
+        <v>596862</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>667682</v>
+        <v>665914</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6043308997497717</v>
+        <v>0.6043308997497716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5685288409138782</v>
+        <v>0.5717212132506962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6395584773370698</v>
+        <v>0.637864752668274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>846</v>
@@ -8365,19 +8365,19 @@
         <v>626600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>601040</v>
+        <v>597658</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>659511</v>
+        <v>657100</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5887134668800016</v>
+        <v>0.5887134668800015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5646991854371854</v>
+        <v>0.5615212960845426</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6196346340102721</v>
+        <v>0.6173694771886085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1406</v>
@@ -8386,19 +8386,19 @@
         <v>1257505</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1214844</v>
+        <v>1201100</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1300284</v>
+        <v>1297739</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.596446691308828</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5762121958775703</v>
+        <v>0.5696931382987921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6167371746812483</v>
+        <v>0.615529848034465</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>289802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257476</v>
+        <v>259913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>325790</v>
+        <v>325286</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2775957776776762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.246630733869561</v>
+        <v>0.2489652817779922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3120674273096399</v>
+        <v>0.3115847983707785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>437</v>
@@ -8436,19 +8436,19 @@
         <v>291326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266408</v>
+        <v>264803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>317238</v>
+        <v>319358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.273711739241538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2503001276180342</v>
+        <v>0.2487918018240271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2980567497308522</v>
+        <v>0.3000479878291514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>713</v>
@@ -8457,19 +8457,19 @@
         <v>581129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>545005</v>
+        <v>543276</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621552</v>
+        <v>634801</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2756349836804486</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2585008464548481</v>
+        <v>0.2576811182952644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2948082182869087</v>
+        <v>0.3010922019232928</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>77002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60613</v>
+        <v>59686</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95530</v>
+        <v>94874</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07375858425029405</v>
+        <v>0.07375858425029404</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05805955943115937</v>
+        <v>0.0571724502246761</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09150577388565571</v>
+        <v>0.09087782115375163</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -8507,19 +8507,19 @@
         <v>87887</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73126</v>
+        <v>74281</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102571</v>
+        <v>103299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0825733439361892</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06870447747616154</v>
+        <v>0.06978922816998802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09636910003601139</v>
+        <v>0.09705276454400058</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>216</v>
@@ -8528,19 +8528,19 @@
         <v>164889</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>142982</v>
+        <v>144327</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>189849</v>
+        <v>191135</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0782085731377089</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06781782576832583</v>
+        <v>0.06845546989876268</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09004727746126795</v>
+        <v>0.09065698796192266</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>34436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24135</v>
+        <v>24279</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49171</v>
+        <v>50970</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03298555603041341</v>
+        <v>0.0329855560304134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02311797558732604</v>
+        <v>0.02325600710935682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04709985433268038</v>
+        <v>0.04882307538222953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -8578,19 +8578,19 @@
         <v>40287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29790</v>
+        <v>30415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51718</v>
+        <v>51618</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03785075567339114</v>
+        <v>0.03785075567339115</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02798848867592825</v>
+        <v>0.02857565661394857</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04859054319978771</v>
+        <v>0.04849703567820545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -8599,19 +8599,19 @@
         <v>74723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61094</v>
+        <v>61032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91748</v>
+        <v>90984</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03544167339694228</v>
+        <v>0.03544167339694227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02897750508038181</v>
+        <v>0.02894821736202276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04351706021308726</v>
+        <v>0.043154749127203</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>11827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6833</v>
+        <v>6320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21260</v>
+        <v>20306</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01132918229184473</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006544942130593472</v>
+        <v>0.006053502548261377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0203646947798353</v>
+        <v>0.01945053844944441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -8649,19 +8649,19 @@
         <v>18254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11397</v>
+        <v>11453</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33017</v>
+        <v>30282</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01715069426888003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01070779217013324</v>
+        <v>0.01076045834255385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03102049459924741</v>
+        <v>0.02845097886604732</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -8670,19 +8670,19 @@
         <v>30082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20543</v>
+        <v>20972</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44080</v>
+        <v>44930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01426807847607221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009743972253605064</v>
+        <v>0.009947324055322631</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02090738429634247</v>
+        <v>0.02131052503999255</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>449337</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>417086</v>
+        <v>416908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>484027</v>
+        <v>482378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5623149396241371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5219549117255544</v>
+        <v>0.5217319471407307</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6057276214560831</v>
+        <v>0.6036634191132961</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>580</v>
@@ -8795,19 +8795,19 @@
         <v>461368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>434418</v>
+        <v>437389</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>486089</v>
+        <v>486777</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.571557168694306</v>
+        <v>0.5715571686943061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5381706811580328</v>
+        <v>0.541851200209214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6021830217926472</v>
+        <v>0.603035286495235</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>957</v>
@@ -8816,19 +8816,19 @@
         <v>910705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>872643</v>
+        <v>868330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>957905</v>
+        <v>950468</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5669594354417522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5432643756604482</v>
+        <v>0.5405792698769937</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5963440480815634</v>
+        <v>0.5917138020177933</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>246838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216625</v>
+        <v>217124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>278696</v>
+        <v>274913</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3089014194710644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2710913660609281</v>
+        <v>0.2717161400376726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3487697308868619</v>
+        <v>0.3440351886954496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>324</v>
@@ -8866,19 +8866,19 @@
         <v>237442</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215299</v>
+        <v>214264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>262962</v>
+        <v>260765</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2941503639283235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2667198351251225</v>
+        <v>0.2654374407192306</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3257655688753067</v>
+        <v>0.3230442884760031</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>532</v>
@@ -8887,19 +8887,19 @@
         <v>484280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>445991</v>
+        <v>447756</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>524627</v>
+        <v>523708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3014885740142469</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2776517517328579</v>
+        <v>0.2787507238614362</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3266066544096804</v>
+        <v>0.326034383155245</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>79786</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>62354</v>
+        <v>61244</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>103848</v>
+        <v>101988</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09984638810291156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07803141224369363</v>
+        <v>0.076642697883597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1299582343950635</v>
+        <v>0.1276310643397869</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -8937,19 +8937,19 @@
         <v>85050</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69721</v>
+        <v>68962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105118</v>
+        <v>102632</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1053627432564634</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0863730451528965</v>
+        <v>0.08543180327083252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1302229700945892</v>
+        <v>0.1271443737835687</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>170</v>
@@ -8958,19 +8958,19 @@
         <v>164836</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>141396</v>
+        <v>138612</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>194087</v>
+        <v>192490</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1026185211288983</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08802598684807991</v>
+        <v>0.08629272777843239</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1208291176142249</v>
+        <v>0.1198345405180518</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>21145</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11775</v>
+        <v>11536</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38379</v>
+        <v>38357</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02646115068418337</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01473615474409284</v>
+        <v>0.01443639081574418</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04802846299324492</v>
+        <v>0.04800069873194932</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -9008,19 +9008,19 @@
         <v>16079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10727</v>
+        <v>10303</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24447</v>
+        <v>24311</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01991859550049621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01328931627355297</v>
+        <v>0.01276347815814721</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03028630130699564</v>
+        <v>0.03011727626003113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -9029,19 +9029,19 @@
         <v>37223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26547</v>
+        <v>25911</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53412</v>
+        <v>53820</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02317332152993419</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01652666735646504</v>
+        <v>0.0161306849746588</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03325178443551551</v>
+        <v>0.03350577561342343</v>
       </c>
     </row>
     <row r="20">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6976</v>
+        <v>6956</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002476102117703547</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00872955372283492</v>
+        <v>0.008705081671456408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -9079,19 +9079,19 @@
         <v>7274</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3915</v>
+        <v>3986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13404</v>
+        <v>13163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009011128620410879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004850363286167926</v>
+        <v>0.004937867087738555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01660499766326421</v>
+        <v>0.016306542851424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -9100,19 +9100,19 @@
         <v>9253</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5165</v>
+        <v>5071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16234</v>
+        <v>16540</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00576014788516827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003215209395087561</v>
+        <v>0.003156728277577557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01010660430776341</v>
+        <v>0.01029679735427603</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>651017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>620835</v>
+        <v>621134</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>680088</v>
+        <v>680764</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.660413679597049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6297961820347012</v>
+        <v>0.6301001009954705</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6899048647749026</v>
+        <v>0.6905899133507367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>989</v>
@@ -9225,19 +9225,19 @@
         <v>728282</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>702098</v>
+        <v>700047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>756600</v>
+        <v>754822</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6559057521366873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6323242034820918</v>
+        <v>0.6304767713074715</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6814101333120643</v>
+        <v>0.6798082159642935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1616</v>
@@ -9246,19 +9246,19 @@
         <v>1379298</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1340079</v>
+        <v>1337353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1425407</v>
+        <v>1424404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.658025760358851</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6393153282938442</v>
+        <v>0.6380147664033861</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6800227542071978</v>
+        <v>0.6795444814040652</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>214891</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>191461</v>
+        <v>188612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242421</v>
+        <v>239928</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2179927390425467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1942243380875266</v>
+        <v>0.191334340252302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2459203915821526</v>
+        <v>0.2433907684875463</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>367</v>
@@ -9296,19 +9296,19 @@
         <v>249503</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>225136</v>
+        <v>224088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>271630</v>
+        <v>275349</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2247079141899917</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2027622818140556</v>
+        <v>0.2018187404241586</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2446360080697446</v>
+        <v>0.2479850659028297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>607</v>
@@ -9317,19 +9317,19 @@
         <v>464394</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>426077</v>
+        <v>429950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>497413</v>
+        <v>501294</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2215498716857518</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2032695486931808</v>
+        <v>0.2051175121795333</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2373020171766911</v>
+        <v>0.2391539103296976</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>82896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>66752</v>
+        <v>66254</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>102160</v>
+        <v>101492</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0840922424657382</v>
+        <v>0.08409224246573822</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06771547275058862</v>
+        <v>0.06721058668327519</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1036344902598257</v>
+        <v>0.102957236824599</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -9367,19 +9367,19 @@
         <v>77043</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64156</v>
+        <v>64070</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>94042</v>
+        <v>94235</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.0693865808557101</v>
+        <v>0.06938658085571012</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05777986509147751</v>
+        <v>0.05770290205390394</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08469603526824158</v>
+        <v>0.08487021255419595</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>200</v>
@@ -9388,19 +9388,19 @@
         <v>159939</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>136837</v>
+        <v>137481</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>183529</v>
+        <v>183928</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07630242495474425</v>
+        <v>0.07630242495474424</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06528138277443089</v>
+        <v>0.06558861123475998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08755666952951052</v>
+        <v>0.08774721699309272</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>23759</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15992</v>
+        <v>15806</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33736</v>
+        <v>35011</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02410146853775928</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01622250753267964</v>
+        <v>0.01603381268922674</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03422345217561314</v>
+        <v>0.0355164336055123</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -9438,19 +9438,19 @@
         <v>37259</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28440</v>
+        <v>29104</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47599</v>
+        <v>47905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0335565189138239</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02561354333291685</v>
+        <v>0.02621169800312698</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04286837147400053</v>
+        <v>0.04314379962886953</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -9459,19 +9459,19 @@
         <v>61018</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49786</v>
+        <v>48308</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75668</v>
+        <v>75501</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0291099556728483</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02375131972692794</v>
+        <v>0.0230463471367112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03609900543964043</v>
+        <v>0.03601935675707949</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>13209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7942</v>
+        <v>6934</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23334</v>
+        <v>21487</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01339987035690688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008056460721268126</v>
+        <v>0.007034320124963484</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02367044609399978</v>
+        <v>0.02179720622625058</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -9509,19 +9509,19 @@
         <v>18258</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11391</v>
+        <v>12330</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26022</v>
+        <v>25860</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01644323390378701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01025915483359011</v>
+        <v>0.01110482546098395</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02343632284115863</v>
+        <v>0.02329015765838338</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -9530,19 +9530,19 @@
         <v>31467</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21954</v>
+        <v>22384</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42932</v>
+        <v>42464</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01501198732780475</v>
+        <v>0.01501198732780474</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01047344641373359</v>
+        <v>0.01067900676031124</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0204815847129431</v>
+        <v>0.02025829929433376</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>2162426</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2099619</v>
+        <v>2097490</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2232344</v>
+        <v>2225150</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6149413391971038</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5970807161381056</v>
+        <v>0.5964751669301331</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6348242737727702</v>
+        <v>0.6327785740963391</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3082</v>
@@ -9655,19 +9655,19 @@
         <v>2245676</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2188300</v>
+        <v>2201420</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2296546</v>
+        <v>2303397</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6056169748012493</v>
+        <v>0.6056169748012491</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5901437567388832</v>
+        <v>0.5936820581826427</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6193357909049531</v>
+        <v>0.6211834373411059</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5072</v>
@@ -9676,19 +9676,19 @@
         <v>4408101</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4330901</v>
+        <v>4325062</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4484530</v>
+        <v>4481415</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6101555101653163</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5994697733641039</v>
+        <v>0.598661497806843</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6207345903256186</v>
+        <v>0.6203034883890745</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>916241</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>861106</v>
+        <v>856539</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>970545</v>
+        <v>972215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2605566486068841</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2448774729368926</v>
+        <v>0.2435788749551769</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2759992719407756</v>
+        <v>0.2764743301636883</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1496</v>
@@ -9726,19 +9726,19 @@
         <v>972049</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>927091</v>
+        <v>924871</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1020668</v>
+        <v>1016702</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2621435337025076</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2500191288298728</v>
+        <v>0.2494205420264332</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.275255202859987</v>
+        <v>0.2741856985993212</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2419</v>
@@ -9747,19 +9747,19 @@
         <v>1888290</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1821561</v>
+        <v>1818589</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1961183</v>
+        <v>1959971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2613711342316761</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2521347912183425</v>
+        <v>0.2517233884194868</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2714608319113792</v>
+        <v>0.2712930558681075</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>297385</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>263182</v>
+        <v>264244</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>336161</v>
+        <v>336754</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08456908823873463</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07484247802475136</v>
+        <v>0.07514462644885105</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09559600835321949</v>
+        <v>0.09576468506400572</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>481</v>
@@ -9797,19 +9797,19 @@
         <v>318637</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>289814</v>
+        <v>287337</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>349543</v>
+        <v>345365</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08593047409415493</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07815736870691721</v>
+        <v>0.07748934522480343</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09426531094542553</v>
+        <v>0.09313862605985004</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>775</v>
@@ -9818,19 +9818,19 @@
         <v>616022</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>568104</v>
+        <v>569294</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>658719</v>
+        <v>660616</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08526783398415312</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07863522732366571</v>
+        <v>0.07879989277455694</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09117782805327825</v>
+        <v>0.09144040108743821</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>98738</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>81288</v>
+        <v>78905</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>123169</v>
+        <v>123543</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02807876053300034</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02311624646266834</v>
+        <v>0.02243877410234459</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03502614469023433</v>
+        <v>0.03513272995714663</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>189</v>
@@ -9868,19 +9868,19 @@
         <v>118966</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>103041</v>
+        <v>102939</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>137447</v>
+        <v>135967</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03208286894831006</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02778816909486893</v>
+        <v>0.02776080627924155</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03706687834802103</v>
+        <v>0.03666786436277385</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>295</v>
@@ -9889,19 +9889,19 @@
         <v>217704</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>194989</v>
+        <v>192326</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>248297</v>
+        <v>245778</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03013391169257244</v>
+        <v>0.03013391169257245</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0269898187796226</v>
+        <v>0.02662111399351603</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03436851957718082</v>
+        <v>0.03401986460862627</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>41685</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30054</v>
+        <v>30158</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54798</v>
+        <v>56218</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01185416342427705</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008546722419890337</v>
+        <v>0.008576061109207165</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01558324286855372</v>
+        <v>0.01598689836858318</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>78</v>
@@ -9939,19 +9939,19 @@
         <v>52752</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41273</v>
+        <v>41145</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67534</v>
+        <v>68167</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01422614845377815</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01113054427233212</v>
+        <v>0.0110959397133727</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01821276370751327</v>
+        <v>0.0183834095830278</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>123</v>
@@ -9960,19 +9960,19 @@
         <v>94437</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>76863</v>
+        <v>77994</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>114465</v>
+        <v>113019</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01307160992628187</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01063909903758645</v>
+        <v>0.01079567870514777</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01584393338495631</v>
+        <v>0.01564374878794673</v>
       </c>
     </row>
     <row r="33">
